--- a/Exercicio_1.xlsx
+++ b/Exercicio_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pchav\Desktop\Multimedia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCF7D84-D80D-438A-9EAB-2064A5C572F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE46A8A-8A48-4CA8-865F-EFCEC5FD72E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{995E39F3-EFB5-4078-8248-0BDB77EB4C0A}"/>
+    <workbookView xWindow="1035" yWindow="120" windowWidth="13035" windowHeight="12825" xr2:uid="{995E39F3-EFB5-4078-8248-0BDB77EB4C0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Qualidade</t>
   </si>
@@ -56,41 +56,22 @@
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>356,5/33,9</t>
-  </si>
-  <si>
-    <t>356,5/22,1</t>
-  </si>
-  <si>
-    <t>356,5/13,8</t>
-  </si>
-  <si>
-    <t>589,9/31,3</t>
-  </si>
-  <si>
-    <t>589,9/20,8</t>
-  </si>
-  <si>
-    <t>589,9/13,7</t>
-  </si>
-  <si>
-    <t>421,6/9,7</t>
-  </si>
-  <si>
-    <t>421,6/7,8</t>
-  </si>
-  <si>
-    <t>421,6/6,3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -118,11 +99,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ADF8A2-97BF-4868-AE23-4A7480280812}">
-  <dimension ref="A2:D5"/>
+  <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +443,7 @@
     <col min="1" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -475,52 +457,65 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
+      <c r="B3">
+        <f>356.5/33.9</f>
+        <v>10.516224188790561</v>
+      </c>
+      <c r="C3">
+        <f>589.9/31.3</f>
+        <v>18.84664536741214</v>
+      </c>
+      <c r="D3">
+        <f>421.6/9.7</f>
+        <v>43.463917525773205</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
+      <c r="B4">
+        <f>356.5/22.1</f>
+        <v>16.131221719457013</v>
+      </c>
+      <c r="C4">
+        <f>589.9/20.8</f>
+        <v>28.36057692307692</v>
+      </c>
+      <c r="D4">
+        <f>421.6/7.8</f>
+        <v>54.051282051282058</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B5">
+        <f>356.5/13.8</f>
+        <v>25.833333333333332</v>
+      </c>
+      <c r="C5">
+        <f>589.9/13.7</f>
+        <v>43.058394160583944</v>
+      </c>
+      <c r="D5">
+        <f>421.6/6.3</f>
+        <v>66.920634920634924</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>